--- a/dados/historico/times/rodada_26/Cuiaba.xlsx
+++ b/dados/historico/times/rodada_26/Cuiaba.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD26"/>
+  <dimension ref="A1:BD27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -712,7 +712,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>132</v>
+        <v>1</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -729,10 +729,8 @@
           <t>Série A</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Matchweek 2</t>
-        </is>
+      <c r="E2" t="n">
+        <v>2</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -900,7 +898,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>133</v>
+        <v>2</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -917,10 +915,8 @@
           <t>Série A</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Matchweek 3</t>
-        </is>
+      <c r="E3" t="n">
+        <v>3</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -1088,7 +1084,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>134</v>
+        <v>4</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -1105,10 +1101,8 @@
           <t>Série A</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Matchweek 5</t>
-        </is>
+      <c r="E4" t="n">
+        <v>5</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -1276,7 +1270,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>135</v>
+        <v>7</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -1293,10 +1287,8 @@
           <t>Série A</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Matchweek 8</t>
-        </is>
+      <c r="E5" t="n">
+        <v>8</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -1464,7 +1456,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>136</v>
+        <v>10</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -1481,10 +1473,8 @@
           <t>Série A</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Matchweek 11</t>
-        </is>
+      <c r="E6" t="n">
+        <v>11</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -1652,7 +1642,7 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>137</v>
+        <v>12</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -1669,10 +1659,8 @@
           <t>Série A</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Matchweek 13</t>
-        </is>
+      <c r="E7" t="n">
+        <v>13</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -1840,7 +1828,7 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>138</v>
+        <v>13</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -1857,10 +1845,8 @@
           <t>Série A</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Matchweek 14</t>
-        </is>
+      <c r="E8" t="n">
+        <v>14</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -2026,7 +2012,7 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>139</v>
+        <v>15</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -2043,10 +2029,8 @@
           <t>Série A</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Matchweek 16</t>
-        </is>
+      <c r="E9" t="n">
+        <v>16</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -2214,7 +2198,7 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>140</v>
+        <v>17</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -2231,10 +2215,8 @@
           <t>Série A</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Matchweek 18</t>
-        </is>
+      <c r="E10" t="n">
+        <v>18</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -2402,7 +2384,7 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>141</v>
+        <v>19</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -2419,10 +2401,8 @@
           <t>Série A</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>Matchweek 20</t>
-        </is>
+      <c r="E11" t="n">
+        <v>20</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -2588,7 +2568,7 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>142</v>
+        <v>22</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -2605,10 +2585,8 @@
           <t>Série A</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>Matchweek 23</t>
-        </is>
+      <c r="E12" t="n">
+        <v>23</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -2774,7 +2752,7 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>143</v>
+        <v>24</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -2791,10 +2769,8 @@
           <t>Série A</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>Matchweek 25</t>
-        </is>
+      <c r="E13" t="n">
+        <v>25</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -2960,16 +2936,16 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2023-08-27</t>
+          <t>2023-10-14</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -2977,14 +2953,12 @@
           <t>Série A</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>Matchweek 21</t>
-        </is>
+      <c r="E14" t="n">
+        <v>26</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Sun</t>
+          <t>Sat</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -2994,49 +2968,47 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>D</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Cuiaba</t>
+          <t>Cruzeiro</t>
         </is>
       </c>
       <c r="L14" t="n">
-        <v>1.5</v>
+        <v>0.9</v>
       </c>
       <c r="M14" t="n">
         <v>0.5</v>
       </c>
       <c r="N14" t="n">
-        <v>63</v>
-      </c>
-      <c r="O14" t="n">
-        <v>3683</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="O14" t="inlineStr"/>
       <c r="P14" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q14" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R14" t="n">
-        <v>36.4</v>
+        <v>20</v>
       </c>
       <c r="S14" t="n">
-        <v>0.18</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -3045,22 +3017,22 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>1.5</v>
+        <v>0.9</v>
       </c>
       <c r="Y14" t="n">
-        <v>0.15</v>
+        <v>0.09</v>
       </c>
       <c r="Z14" t="n">
-        <v>0.5</v>
+        <v>-0.9</v>
       </c>
       <c r="AA14" t="n">
-        <v>0.5</v>
+        <v>-0.9</v>
       </c>
       <c r="AB14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AC14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AD14" t="n">
         <v>100</v>
@@ -3069,90 +3041,90 @@
         <v>1</v>
       </c>
       <c r="AF14" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>6434</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>2158</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK14" t="n">
         <v>0.9</v>
       </c>
-      <c r="AG14" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>8094</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>3024</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>0.8</v>
-      </c>
       <c r="AL14" t="n">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AM14" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AN14" t="n">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="AO14" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AP14" t="n">
         <v>0</v>
       </c>
       <c r="AQ14" t="n">
-        <v>64</v>
+        <v>37</v>
       </c>
       <c r="AR14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AS14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AT14" t="n">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="AU14" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AV14" t="n">
         <v>19</v>
       </c>
       <c r="AW14" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AX14" t="n">
         <v>13</v>
       </c>
       <c r="AY14" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AZ14" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BA14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BB14" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BC14" t="n">
         <v>0</v>
       </c>
       <c r="BD14" t="inlineStr">
         <is>
-          <t>Bragantino</t>
+          <t>Cuiaba</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2023-09-03</t>
+          <t>2023-08-27</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -3165,10 +3137,8 @@
           <t>Série A</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>Matchweek 22</t>
-        </is>
+      <c r="E15" t="n">
+        <v>21</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -3197,29 +3167,31 @@
         </is>
       </c>
       <c r="L15" t="n">
-        <v>0.7</v>
+        <v>1.5</v>
       </c>
       <c r="M15" t="n">
-        <v>1.1</v>
+        <v>0.5</v>
       </c>
       <c r="N15" t="n">
-        <v>43</v>
-      </c>
-      <c r="O15" t="inlineStr"/>
+        <v>63</v>
+      </c>
+      <c r="O15" t="n">
+        <v>3683</v>
+      </c>
       <c r="P15" t="n">
         <v>11</v>
       </c>
       <c r="Q15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R15" t="n">
-        <v>45.5</v>
+        <v>36.4</v>
       </c>
       <c r="S15" t="n">
-        <v>0.09</v>
+        <v>0.18</v>
       </c>
       <c r="T15" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
@@ -3231,16 +3203,16 @@
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>0.7</v>
+        <v>1.5</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.06</v>
+        <v>0.15</v>
       </c>
       <c r="Z15" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="AA15" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="AB15" t="n">
         <v>3</v>
@@ -3255,95 +3227,95 @@
         <v>1</v>
       </c>
       <c r="AF15" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AG15" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AH15" t="n">
-        <v>5878</v>
+        <v>8094</v>
       </c>
       <c r="AI15" t="n">
-        <v>2170</v>
+        <v>3024</v>
       </c>
       <c r="AJ15" t="n">
         <v>1</v>
       </c>
       <c r="AK15" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="AL15" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="AM15" t="n">
         <v>10</v>
       </c>
       <c r="AN15" t="n">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="AO15" t="n">
         <v>8</v>
       </c>
       <c r="AP15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>64</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS15" t="n">
         <v>3</v>
       </c>
-      <c r="AQ15" t="n">
+      <c r="AT15" t="n">
         <v>31</v>
       </c>
-      <c r="AR15" t="n">
-        <v>4</v>
-      </c>
-      <c r="AS15" t="n">
-        <v>1</v>
-      </c>
-      <c r="AT15" t="n">
-        <v>6</v>
-      </c>
       <c r="AU15" t="n">
+        <v>11</v>
+      </c>
+      <c r="AV15" t="n">
+        <v>19</v>
+      </c>
+      <c r="AW15" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX15" t="n">
+        <v>13</v>
+      </c>
+      <c r="AY15" t="n">
         <v>7</v>
       </c>
-      <c r="AV15" t="n">
-        <v>22</v>
-      </c>
-      <c r="AW15" t="n">
-        <v>2</v>
-      </c>
-      <c r="AX15" t="n">
-        <v>8</v>
-      </c>
-      <c r="AY15" t="n">
-        <v>8</v>
-      </c>
       <c r="AZ15" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="BA15" t="n">
         <v>3</v>
       </c>
       <c r="BB15" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="BC15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD15" t="inlineStr">
         <is>
-          <t>Gremio</t>
+          <t>Bragantino</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2023-04-15</t>
+          <t>2023-09-03</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -3351,14 +3323,12 @@
           <t>Série A</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>Matchweek 1</t>
-        </is>
+      <c r="E16" t="n">
+        <v>22</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Sat</t>
+          <t>Sun</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -3375,7 +3345,7 @@
         <v>2</v>
       </c>
       <c r="J16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -3383,31 +3353,29 @@
         </is>
       </c>
       <c r="L16" t="n">
-        <v>3</v>
+        <v>0.7</v>
       </c>
       <c r="M16" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="N16" t="n">
-        <v>52</v>
-      </c>
-      <c r="O16" t="n">
-        <v>35835</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="O16" t="inlineStr"/>
       <c r="P16" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="Q16" t="n">
         <v>5</v>
       </c>
       <c r="R16" t="n">
-        <v>29.4</v>
+        <v>45.5</v>
       </c>
       <c r="S16" t="n">
-        <v>0.12</v>
+        <v>0.09</v>
       </c>
       <c r="T16" t="n">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -3419,114 +3387,114 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="AB16" t="n">
         <v>3</v>
-      </c>
-      <c r="Y16" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>4</v>
       </c>
       <c r="AC16" t="n">
         <v>3</v>
       </c>
       <c r="AD16" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="AE16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="AG16" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AH16" t="n">
-        <v>8419</v>
+        <v>5878</v>
       </c>
       <c r="AI16" t="n">
-        <v>3065</v>
+        <v>2170</v>
       </c>
       <c r="AJ16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AK16" t="n">
-        <v>2.6</v>
+        <v>0.7</v>
       </c>
       <c r="AL16" t="n">
-        <v>1.4</v>
+        <v>0.7</v>
       </c>
       <c r="AM16" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AN16" t="n">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="AO16" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AP16" t="n">
+        <v>3</v>
+      </c>
+      <c r="AQ16" t="n">
+        <v>31</v>
+      </c>
+      <c r="AR16" t="n">
+        <v>4</v>
+      </c>
+      <c r="AS16" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT16" t="n">
         <v>6</v>
       </c>
-      <c r="AQ16" t="n">
-        <v>39</v>
-      </c>
-      <c r="AR16" t="n">
-        <v>1</v>
-      </c>
-      <c r="AS16" t="n">
+      <c r="AU16" t="n">
         <v>7</v>
       </c>
-      <c r="AT16" t="n">
+      <c r="AV16" t="n">
         <v>22</v>
       </c>
-      <c r="AU16" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV16" t="n">
-        <v>28</v>
-      </c>
       <c r="AW16" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX16" t="n">
+        <v>8</v>
+      </c>
+      <c r="AY16" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ16" t="n">
+        <v>5</v>
+      </c>
+      <c r="BA16" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB16" t="n">
         <v>4</v>
       </c>
-      <c r="AX16" t="n">
-        <v>12</v>
-      </c>
-      <c r="AY16" t="n">
-        <v>9</v>
-      </c>
-      <c r="AZ16" t="n">
-        <v>6</v>
-      </c>
-      <c r="BA16" t="n">
-        <v>4</v>
-      </c>
-      <c r="BB16" t="n">
-        <v>8</v>
-      </c>
       <c r="BC16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD16" t="inlineStr">
         <is>
-          <t>Palmeiras</t>
+          <t>Gremio</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2023-07-16</t>
+          <t>2023-04-15</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -3539,14 +3507,12 @@
           <t>Série A</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>Matchweek 15</t>
-        </is>
+      <c r="E17" t="n">
+        <v>1</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Sun</t>
+          <t>Sat</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -3556,11 +3522,11 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J17" t="n">
         <v>1</v>
@@ -3571,155 +3537,155 @@
         </is>
       </c>
       <c r="L17" t="n">
-        <v>0.9</v>
+        <v>3</v>
       </c>
       <c r="M17" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="N17" t="n">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="O17" t="n">
-        <v>43048</v>
+        <v>35835</v>
       </c>
       <c r="P17" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="Q17" t="n">
+        <v>5</v>
+      </c>
+      <c r="R17" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="T17" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="n">
+        <v>0</v>
+      </c>
+      <c r="X17" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>4</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>75</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>8419</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>3065</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>11</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>36</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>9</v>
+      </c>
+      <c r="AP17" t="n">
         <v>6</v>
       </c>
-      <c r="R17" t="n">
-        <v>28.6</v>
-      </c>
-      <c r="S17" t="n">
-        <v>0</v>
-      </c>
-      <c r="T17" t="n">
-        <v>0</v>
-      </c>
-      <c r="U17" t="n">
-        <v>2</v>
-      </c>
-      <c r="V17" t="n">
-        <v>0</v>
-      </c>
-      <c r="W17" t="n">
-        <v>0</v>
-      </c>
-      <c r="X17" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>-0.9</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>-0.9</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>-0.5</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>8739</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>2850</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK17" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="AL17" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="AM17" t="n">
-        <v>16</v>
-      </c>
-      <c r="AN17" t="n">
-        <v>47</v>
-      </c>
-      <c r="AO17" t="n">
-        <v>13</v>
-      </c>
-      <c r="AP17" t="n">
+      <c r="AQ17" t="n">
+        <v>39</v>
+      </c>
+      <c r="AR17" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS17" t="n">
         <v>7</v>
       </c>
-      <c r="AQ17" t="n">
-        <v>58</v>
-      </c>
-      <c r="AR17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS17" t="n">
-        <v>3</v>
-      </c>
       <c r="AT17" t="n">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="AU17" t="n">
         <v>9</v>
       </c>
       <c r="AV17" t="n">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="AW17" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AX17" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AY17" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AZ17" t="n">
+        <v>6</v>
+      </c>
+      <c r="BA17" t="n">
         <v>4</v>
       </c>
-      <c r="BA17" t="n">
-        <v>1</v>
-      </c>
       <c r="BB17" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="BC17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD17" t="inlineStr">
         <is>
-          <t>Fortaleza</t>
+          <t>Palmeiras</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>79</v>
+        <v>24</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2023-05-13</t>
+          <t>2023-07-16</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>18:30</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -3727,14 +3693,12 @@
           <t>Série A</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>Matchweek 6</t>
-        </is>
+      <c r="E18" t="n">
+        <v>15</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Sat</t>
+          <t>Sun</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -3744,14 +3708,14 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -3762,31 +3726,31 @@
         <v>0.9</v>
       </c>
       <c r="M18" t="n">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="N18" t="n">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="O18" t="n">
-        <v>39040</v>
+        <v>43048</v>
       </c>
       <c r="P18" t="n">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="Q18" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="R18" t="n">
         <v>28.6</v>
       </c>
       <c r="S18" t="n">
-        <v>0.29</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -3798,116 +3762,116 @@
         <v>0.9</v>
       </c>
       <c r="Y18" t="n">
-        <v>0.13</v>
+        <v>0.04</v>
       </c>
       <c r="Z18" t="n">
-        <v>1.1</v>
+        <v>-0.9</v>
       </c>
       <c r="AA18" t="n">
-        <v>1.1</v>
+        <v>-0.9</v>
       </c>
       <c r="AB18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AD18" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AE18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF18" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="AG18" t="n">
-        <v>0.3</v>
+        <v>-0.5</v>
       </c>
       <c r="AH18" t="n">
-        <v>8622</v>
+        <v>8739</v>
       </c>
       <c r="AI18" t="n">
-        <v>2633</v>
+        <v>2850</v>
       </c>
       <c r="AJ18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AK18" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AL18" t="n">
         <v>0.8</v>
       </c>
-      <c r="AL18" t="n">
-        <v>1.3</v>
-      </c>
       <c r="AM18" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="AN18" t="n">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="AO18" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>7</v>
+      </c>
+      <c r="AQ18" t="n">
+        <v>58</v>
+      </c>
+      <c r="AR18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS18" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT18" t="n">
+        <v>42</v>
+      </c>
+      <c r="AU18" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV18" t="n">
+        <v>40</v>
+      </c>
+      <c r="AW18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX18" t="n">
+        <v>11</v>
+      </c>
+      <c r="AY18" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ18" t="n">
         <v>4</v>
       </c>
-      <c r="AP18" t="n">
-        <v>2</v>
-      </c>
-      <c r="AQ18" t="n">
-        <v>34</v>
-      </c>
-      <c r="AR18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS18" t="n">
-        <v>6</v>
-      </c>
-      <c r="AT18" t="n">
-        <v>15</v>
-      </c>
-      <c r="AU18" t="n">
-        <v>12</v>
-      </c>
-      <c r="AV18" t="n">
-        <v>13</v>
-      </c>
-      <c r="AW18" t="n">
-        <v>4</v>
-      </c>
-      <c r="AX18" t="n">
-        <v>10</v>
-      </c>
-      <c r="AY18" t="n">
-        <v>9</v>
-      </c>
-      <c r="AZ18" t="n">
-        <v>12</v>
-      </c>
       <c r="BA18" t="n">
         <v>1</v>
       </c>
       <c r="BB18" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="BC18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD18" t="inlineStr">
         <is>
-          <t>Fluminense</t>
+          <t>Fortaleza</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>100</v>
+        <v>8</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2023-08-15</t>
+          <t>2023-05-13</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>18:30</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -3915,14 +3879,12 @@
           <t>Série A</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>Matchweek 19</t>
-        </is>
+      <c r="E19" t="n">
+        <v>6</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Sat</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -3947,58 +3909,58 @@
         </is>
       </c>
       <c r="L19" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="M19" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="N19" t="n">
+        <v>61</v>
+      </c>
+      <c r="O19" t="n">
+        <v>39040</v>
+      </c>
+      <c r="P19" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>2</v>
+      </c>
+      <c r="R19" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="T19" t="n">
+        <v>1</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="n">
+        <v>0</v>
+      </c>
+      <c r="X19" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="Z19" t="n">
         <v>1.1</v>
       </c>
-      <c r="N19" t="n">
-        <v>54</v>
-      </c>
-      <c r="O19" t="n">
-        <v>18444</v>
-      </c>
-      <c r="P19" t="n">
-        <v>12</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>6</v>
-      </c>
-      <c r="R19" t="n">
-        <v>50</v>
-      </c>
-      <c r="S19" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="T19" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="U19" t="n">
-        <v>1</v>
-      </c>
-      <c r="V19" t="n">
-        <v>0</v>
-      </c>
-      <c r="W19" t="n">
-        <v>0</v>
-      </c>
-      <c r="X19" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="Y19" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="Z19" t="n">
-        <v>1.2</v>
-      </c>
       <c r="AA19" t="n">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="AB19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD19" t="n">
         <v>100</v>
@@ -4007,28 +3969,28 @@
         <v>1</v>
       </c>
       <c r="AF19" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="AG19" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="AH19" t="n">
-        <v>7260</v>
+        <v>8622</v>
       </c>
       <c r="AI19" t="n">
-        <v>2361</v>
+        <v>2633</v>
       </c>
       <c r="AJ19" t="n">
         <v>2</v>
       </c>
       <c r="AK19" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="AL19" t="n">
-        <v>0.5</v>
+        <v>1.3</v>
       </c>
       <c r="AM19" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AN19" t="n">
         <v>34</v>
@@ -4040,10 +4002,10 @@
         <v>2</v>
       </c>
       <c r="AQ19" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AR19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AS19" t="n">
         <v>6</v>
@@ -4052,50 +4014,50 @@
         <v>15</v>
       </c>
       <c r="AU19" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="AV19" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="AW19" t="n">
         <v>4</v>
       </c>
       <c r="AX19" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AY19" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AZ19" t="n">
+        <v>12</v>
+      </c>
+      <c r="BA19" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB19" t="n">
         <v>9</v>
       </c>
-      <c r="BA19" t="n">
-        <v>2</v>
-      </c>
-      <c r="BB19" t="n">
-        <v>6</v>
-      </c>
       <c r="BC19" t="n">
         <v>0</v>
       </c>
       <c r="BD19" t="inlineStr">
         <is>
-          <t>Ath Paranaense</t>
+          <t>Fluminense</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>116</v>
+        <v>26</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2023-09-23</t>
+          <t>2023-08-15</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -4103,14 +4065,12 @@
           <t>Série A</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>Matchweek 24</t>
-        </is>
+      <c r="E20" t="n">
+        <v>19</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Sat</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -4124,7 +4084,7 @@
         </is>
       </c>
       <c r="I20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -4135,32 +4095,34 @@
         </is>
       </c>
       <c r="L20" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="M20" t="n">
-        <v>0.4</v>
+        <v>1.1</v>
       </c>
       <c r="N20" t="n">
-        <v>64</v>
-      </c>
-      <c r="O20" t="inlineStr"/>
+        <v>54</v>
+      </c>
+      <c r="O20" t="n">
+        <v>18444</v>
+      </c>
       <c r="P20" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="Q20" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="R20" t="n">
-        <v>42.9</v>
+        <v>50</v>
       </c>
       <c r="S20" t="n">
-        <v>0.14</v>
+        <v>0.17</v>
       </c>
       <c r="T20" t="n">
         <v>0.33</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -4169,22 +4131,22 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="Y20" t="n">
-        <v>0.09</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="Z20" t="n">
-        <v>0.4</v>
+        <v>1.2</v>
       </c>
       <c r="AA20" t="n">
-        <v>0.4</v>
+        <v>1.2</v>
       </c>
       <c r="AB20" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AC20" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AD20" t="n">
         <v>100</v>
@@ -4193,95 +4155,95 @@
         <v>1</v>
       </c>
       <c r="AF20" t="n">
-        <v>1.1</v>
+        <v>0.2</v>
       </c>
       <c r="AG20" t="n">
-        <v>1.1</v>
+        <v>0.2</v>
       </c>
       <c r="AH20" t="n">
-        <v>9701</v>
+        <v>7260</v>
       </c>
       <c r="AI20" t="n">
-        <v>3081</v>
+        <v>2361</v>
       </c>
       <c r="AJ20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK20" t="n">
         <v>0.6</v>
       </c>
       <c r="AL20" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="AM20" t="n">
+        <v>8</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>34</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>4</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ20" t="n">
+        <v>36</v>
+      </c>
+      <c r="AR20" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS20" t="n">
+        <v>6</v>
+      </c>
+      <c r="AT20" t="n">
+        <v>15</v>
+      </c>
+      <c r="AU20" t="n">
         <v>7</v>
       </c>
-      <c r="AN20" t="n">
-        <v>58</v>
-      </c>
-      <c r="AO20" t="n">
-        <v>9</v>
-      </c>
-      <c r="AP20" t="n">
-        <v>1</v>
-      </c>
-      <c r="AQ20" t="n">
-        <v>63</v>
-      </c>
-      <c r="AR20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS20" t="n">
+      <c r="AV20" t="n">
+        <v>19</v>
+      </c>
+      <c r="AW20" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX20" t="n">
         <v>7</v>
-      </c>
-      <c r="AT20" t="n">
-        <v>17</v>
-      </c>
-      <c r="AU20" t="n">
-        <v>12</v>
-      </c>
-      <c r="AV20" t="n">
-        <v>12</v>
-      </c>
-      <c r="AW20" t="n">
-        <v>2</v>
-      </c>
-      <c r="AX20" t="n">
-        <v>4</v>
       </c>
       <c r="AY20" t="n">
         <v>5</v>
       </c>
       <c r="AZ20" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="BA20" t="n">
         <v>2</v>
       </c>
       <c r="BB20" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BC20" t="n">
         <v>0</v>
       </c>
       <c r="BD20" t="inlineStr">
         <is>
-          <t>Atletico Mineiro</t>
+          <t>Ath Paranaense</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>151</v>
+        <v>35</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2023-07-29</t>
+          <t>2023-09-23</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -4289,10 +4251,8 @@
           <t>Série A</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>Matchweek 17</t>
-        </is>
+      <c r="E21" t="n">
+        <v>24</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -4306,14 +4266,14 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="I21" t="n">
         <v>1</v>
       </c>
       <c r="J21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -4321,29 +4281,29 @@
         </is>
       </c>
       <c r="L21" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="M21" t="n">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="N21" t="n">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="O21" t="inlineStr"/>
       <c r="P21" t="n">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="Q21" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R21" t="n">
-        <v>23.5</v>
+        <v>42.9</v>
       </c>
       <c r="S21" t="n">
-        <v>0.06</v>
+        <v>0.14</v>
       </c>
       <c r="T21" t="n">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
@@ -4355,119 +4315,119 @@
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="Y21" t="n">
-        <v>0.06</v>
+        <v>0.09</v>
       </c>
       <c r="Z21" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AA21" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AB21" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AC21" t="n">
         <v>3</v>
       </c>
       <c r="AD21" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="AE21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF21" t="n">
-        <v>1.6</v>
+        <v>1.1</v>
       </c>
       <c r="AG21" t="n">
-        <v>-0.4</v>
+        <v>1.1</v>
       </c>
       <c r="AH21" t="n">
-        <v>12790</v>
+        <v>9701</v>
       </c>
       <c r="AI21" t="n">
-        <v>3735</v>
+        <v>3081</v>
       </c>
       <c r="AJ21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK21" t="n">
         <v>0.6</v>
       </c>
       <c r="AL21" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AM21" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="AN21" t="n">
-        <v>84</v>
+        <v>58</v>
       </c>
       <c r="AO21" t="n">
         <v>9</v>
       </c>
       <c r="AP21" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ21" t="n">
+        <v>63</v>
+      </c>
+      <c r="AR21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS21" t="n">
+        <v>7</v>
+      </c>
+      <c r="AT21" t="n">
+        <v>17</v>
+      </c>
+      <c r="AU21" t="n">
+        <v>12</v>
+      </c>
+      <c r="AV21" t="n">
+        <v>12</v>
+      </c>
+      <c r="AW21" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX21" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY21" t="n">
+        <v>5</v>
+      </c>
+      <c r="AZ21" t="n">
         <v>3</v>
       </c>
-      <c r="AQ21" t="n">
-        <v>68</v>
-      </c>
-      <c r="AR21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AS21" t="n">
-        <v>8</v>
-      </c>
-      <c r="AT21" t="n">
-        <v>24</v>
-      </c>
-      <c r="AU21" t="n">
-        <v>15</v>
-      </c>
-      <c r="AV21" t="n">
-        <v>32</v>
-      </c>
-      <c r="AW21" t="n">
-        <v>2</v>
-      </c>
-      <c r="AX21" t="n">
-        <v>6</v>
-      </c>
-      <c r="AY21" t="n">
-        <v>3</v>
-      </c>
-      <c r="AZ21" t="n">
-        <v>5</v>
-      </c>
       <c r="BA21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BB21" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BC21" t="n">
         <v>0</v>
       </c>
       <c r="BD21" t="inlineStr">
         <is>
-          <t>Internacional</t>
+          <t>Atletico Mineiro</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>161</v>
+        <v>22</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2023-06-10</t>
+          <t>2023-07-29</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>18:30</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -4475,10 +4435,8 @@
           <t>Série A</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>Matchweek 10</t>
-        </is>
+      <c r="E22" t="n">
+        <v>17</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -4492,14 +4450,14 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>L</t>
         </is>
       </c>
       <c r="I22" t="n">
         <v>1</v>
       </c>
       <c r="J22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
@@ -4507,31 +4465,29 @@
         </is>
       </c>
       <c r="L22" t="n">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="M22" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="N22" t="n">
-        <v>61</v>
-      </c>
-      <c r="O22" t="n">
-        <v>40512</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="O22" t="inlineStr"/>
       <c r="P22" t="n">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="Q22" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="R22" t="n">
-        <v>29.2</v>
+        <v>23.5</v>
       </c>
       <c r="S22" t="n">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
       <c r="T22" t="n">
-        <v>0.14</v>
+        <v>0.25</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -4543,94 +4499,94 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="Y22" t="n">
         <v>0.06</v>
       </c>
       <c r="Z22" t="n">
-        <v>-0.4</v>
+        <v>0</v>
       </c>
       <c r="AA22" t="n">
-        <v>-0.4</v>
+        <v>0</v>
       </c>
       <c r="AB22" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AC22" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AD22" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AE22" t="n">
         <v>0</v>
       </c>
       <c r="AF22" t="n">
-        <v>0.6</v>
+        <v>1.6</v>
       </c>
       <c r="AG22" t="n">
         <v>-0.4</v>
       </c>
       <c r="AH22" t="n">
-        <v>9535</v>
+        <v>12790</v>
       </c>
       <c r="AI22" t="n">
-        <v>3395</v>
+        <v>3735</v>
       </c>
       <c r="AJ22" t="n">
         <v>0</v>
       </c>
       <c r="AK22" t="n">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="AL22" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AM22" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="AN22" t="n">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="AO22" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AP22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AQ22" t="n">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="AR22" t="n">
         <v>1</v>
       </c>
       <c r="AS22" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AT22" t="n">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="AU22" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AV22" t="n">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="AW22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX22" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AY22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AZ22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BA22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BB22" t="n">
         <v>5</v>
@@ -4640,13 +4596,13 @@
       </c>
       <c r="BD22" t="inlineStr">
         <is>
-          <t>Corinthians</t>
+          <t>Internacional</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>186</v>
+        <v>6</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -4663,10 +4619,8 @@
           <t>Série A</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>Matchweek 7</t>
-        </is>
+      <c r="E23" t="n">
+        <v>7</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
@@ -4834,16 +4788,16 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>213</v>
+        <v>14</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2023-06-26</t>
+          <t>2023-06-10</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>18:30</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -4851,14 +4805,12 @@
           <t>Série A</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>Matchweek 12</t>
-        </is>
+      <c r="E24" t="n">
+        <v>10</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Sat</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -4868,14 +4820,14 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>D</t>
         </is>
       </c>
       <c r="I24" t="n">
         <v>1</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -4883,153 +4835,155 @@
         </is>
       </c>
       <c r="L24" t="n">
-        <v>1.7</v>
+        <v>1.4</v>
       </c>
       <c r="M24" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="N24" t="n">
+        <v>61</v>
+      </c>
+      <c r="O24" t="n">
+        <v>40512</v>
+      </c>
+      <c r="P24" t="n">
+        <v>24</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>7</v>
+      </c>
+      <c r="R24" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="S24" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="T24" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="U24" t="n">
+        <v>0</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="n">
+        <v>0</v>
+      </c>
+      <c r="X24" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>-0.4</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>-0.4</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>50</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF24" t="n">
         <v>0.6</v>
       </c>
-      <c r="N24" t="n">
-        <v>45</v>
-      </c>
-      <c r="O24" t="inlineStr"/>
-      <c r="P24" t="n">
+      <c r="AG24" t="n">
+        <v>-0.4</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>9535</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>3395</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>19</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>71</v>
+      </c>
+      <c r="AO24" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP24" t="n">
+        <v>4</v>
+      </c>
+      <c r="AQ24" t="n">
+        <v>70</v>
+      </c>
+      <c r="AR24" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS24" t="n">
+        <v>10</v>
+      </c>
+      <c r="AT24" t="n">
+        <v>37</v>
+      </c>
+      <c r="AU24" t="n">
+        <v>10</v>
+      </c>
+      <c r="AV24" t="n">
+        <v>43</v>
+      </c>
+      <c r="AW24" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX24" t="n">
         <v>8</v>
       </c>
-      <c r="Q24" t="n">
-        <v>1</v>
-      </c>
-      <c r="R24" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="S24" t="n">
-        <v>0</v>
-      </c>
-      <c r="T24" t="n">
-        <v>0</v>
-      </c>
-      <c r="U24" t="n">
-        <v>1</v>
-      </c>
-      <c r="V24" t="n">
-        <v>1</v>
-      </c>
-      <c r="W24" t="n">
-        <v>1</v>
-      </c>
-      <c r="X24" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="Y24" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="Z24" t="n">
-        <v>-0.7</v>
-      </c>
-      <c r="AA24" t="n">
-        <v>-0.9</v>
-      </c>
-      <c r="AB24" t="n">
-        <v>3</v>
-      </c>
-      <c r="AC24" t="n">
-        <v>3</v>
-      </c>
-      <c r="AD24" t="n">
-        <v>100</v>
-      </c>
-      <c r="AE24" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF24" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="AG24" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="AH24" t="n">
-        <v>4936</v>
-      </c>
-      <c r="AI24" t="n">
-        <v>1741</v>
-      </c>
-      <c r="AJ24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK24" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="AL24" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM24" t="n">
+      <c r="AY24" t="n">
         <v>4</v>
       </c>
-      <c r="AN24" t="n">
-        <v>17</v>
-      </c>
-      <c r="AO24" t="n">
-        <v>7</v>
-      </c>
-      <c r="AP24" t="n">
-        <v>1</v>
-      </c>
-      <c r="AQ24" t="n">
-        <v>24</v>
-      </c>
-      <c r="AR24" t="n">
-        <v>2</v>
-      </c>
-      <c r="AS24" t="n">
-        <v>3</v>
-      </c>
-      <c r="AT24" t="n">
-        <v>10</v>
-      </c>
-      <c r="AU24" t="n">
-        <v>6</v>
-      </c>
-      <c r="AV24" t="n">
-        <v>12</v>
-      </c>
-      <c r="AW24" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX24" t="n">
-        <v>9</v>
-      </c>
-      <c r="AY24" t="n">
-        <v>10</v>
-      </c>
       <c r="AZ24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BA24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BB24" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="BC24" t="n">
         <v>0</v>
       </c>
       <c r="BD24" t="inlineStr">
         <is>
-          <t>Vasco da Gama</t>
+          <t>Corinthians</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>224</v>
+        <v>11</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2023-06-04</t>
+          <t>2023-06-26</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>18:30</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -5037,14 +4991,12 @@
           <t>Série A</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>Matchweek 9</t>
-        </is>
+      <c r="E25" t="n">
+        <v>12</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Sun</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -5054,14 +5006,14 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
@@ -5069,121 +5021,119 @@
         </is>
       </c>
       <c r="L25" t="n">
-        <v>0.4</v>
+        <v>1.7</v>
       </c>
       <c r="M25" t="n">
-        <v>1.2</v>
+        <v>0.6</v>
       </c>
       <c r="N25" t="n">
-        <v>55</v>
-      </c>
-      <c r="O25" t="n">
-        <v>6987</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="O25" t="inlineStr"/>
       <c r="P25" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="Q25" t="n">
+        <v>1</v>
+      </c>
+      <c r="R25" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0</v>
+      </c>
+      <c r="U25" t="n">
+        <v>1</v>
+      </c>
+      <c r="V25" t="n">
+        <v>1</v>
+      </c>
+      <c r="W25" t="n">
+        <v>1</v>
+      </c>
+      <c r="X25" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>-0.7</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>-0.9</v>
+      </c>
+      <c r="AB25" t="n">
         <v>3</v>
       </c>
-      <c r="R25" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="S25" t="n">
-        <v>0</v>
-      </c>
-      <c r="T25" t="n">
-        <v>0</v>
-      </c>
-      <c r="U25" t="n">
-        <v>2</v>
-      </c>
-      <c r="V25" t="n">
-        <v>0</v>
-      </c>
-      <c r="W25" t="n">
-        <v>0</v>
-      </c>
-      <c r="X25" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="Y25" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="Z25" t="n">
-        <v>-0.4</v>
-      </c>
-      <c r="AA25" t="n">
-        <v>-0.4</v>
-      </c>
-      <c r="AB25" t="n">
-        <v>8</v>
-      </c>
       <c r="AC25" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>100</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>4936</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>1741</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>4</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>17</v>
+      </c>
+      <c r="AO25" t="n">
         <v>7</v>
       </c>
-      <c r="AD25" t="n">
-        <v>87.5</v>
-      </c>
-      <c r="AE25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF25" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="AG25" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="AH25" t="n">
-        <v>8022</v>
-      </c>
-      <c r="AI25" t="n">
-        <v>3042</v>
-      </c>
-      <c r="AJ25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK25" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="AL25" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="AM25" t="n">
-        <v>8</v>
-      </c>
-      <c r="AN25" t="n">
-        <v>44</v>
-      </c>
-      <c r="AO25" t="n">
+      <c r="AP25" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ25" t="n">
+        <v>24</v>
+      </c>
+      <c r="AR25" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS25" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT25" t="n">
+        <v>10</v>
+      </c>
+      <c r="AU25" t="n">
         <v>6</v>
       </c>
-      <c r="AP25" t="n">
-        <v>2</v>
-      </c>
-      <c r="AQ25" t="n">
-        <v>46</v>
-      </c>
-      <c r="AR25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS25" t="n">
-        <v>6</v>
-      </c>
-      <c r="AT25" t="n">
-        <v>26</v>
-      </c>
-      <c r="AU25" t="n">
+      <c r="AV25" t="n">
+        <v>12</v>
+      </c>
+      <c r="AW25" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX25" t="n">
         <v>9</v>
-      </c>
-      <c r="AV25" t="n">
-        <v>22</v>
-      </c>
-      <c r="AW25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX25" t="n">
-        <v>12</v>
       </c>
       <c r="AY25" t="n">
         <v>10</v>
@@ -5192,32 +5142,32 @@
         <v>3</v>
       </c>
       <c r="BA25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BB25" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="BC25" t="n">
         <v>0</v>
       </c>
       <c r="BD25" t="inlineStr">
         <is>
-          <t>Goias</t>
+          <t>Vasco da Gama</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>247</v>
+        <v>12</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2023-05-07</t>
+          <t>2023-06-04</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>18:30</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -5225,10 +5175,8 @@
           <t>Série A</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>Matchweek 4</t>
-        </is>
+      <c r="E26" t="n">
+        <v>9</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -5246,10 +5194,10 @@
         </is>
       </c>
       <c r="I26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -5257,34 +5205,34 @@
         </is>
       </c>
       <c r="L26" t="n">
-        <v>1.4</v>
+        <v>0.4</v>
       </c>
       <c r="M26" t="n">
-        <v>0.5</v>
+        <v>1.2</v>
       </c>
       <c r="N26" t="n">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="O26" t="n">
-        <v>5228</v>
+        <v>6987</v>
       </c>
       <c r="P26" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="Q26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R26" t="n">
-        <v>26.7</v>
+        <v>27.3</v>
       </c>
       <c r="S26" t="n">
-        <v>0.07000000000000001</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -5293,10 +5241,10 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>1.4</v>
+        <v>0.4</v>
       </c>
       <c r="Y26" t="n">
-        <v>0.09</v>
+        <v>0.03</v>
       </c>
       <c r="Z26" t="n">
         <v>-0.4</v>
@@ -5305,76 +5253,76 @@
         <v>-0.4</v>
       </c>
       <c r="AB26" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AC26" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AD26" t="n">
-        <v>60</v>
+        <v>87.5</v>
       </c>
       <c r="AE26" t="n">
         <v>0</v>
       </c>
       <c r="AF26" t="n">
-        <v>1.7</v>
+        <v>2.3</v>
       </c>
       <c r="AG26" t="n">
-        <v>0.7</v>
+        <v>1.3</v>
       </c>
       <c r="AH26" t="n">
-        <v>5910</v>
+        <v>8022</v>
       </c>
       <c r="AI26" t="n">
-        <v>2600</v>
+        <v>3042</v>
       </c>
       <c r="AJ26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK26" t="n">
-        <v>1.2</v>
+        <v>0.2</v>
       </c>
       <c r="AL26" t="n">
-        <v>1.5</v>
+        <v>0.4</v>
       </c>
       <c r="AM26" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AN26" t="n">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="AO26" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="AP26" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ26" t="n">
+        <v>46</v>
+      </c>
+      <c r="AR26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS26" t="n">
         <v>6</v>
       </c>
-      <c r="AQ26" t="n">
-        <v>48</v>
-      </c>
-      <c r="AR26" t="n">
-        <v>4</v>
-      </c>
-      <c r="AS26" t="n">
-        <v>4</v>
-      </c>
       <c r="AT26" t="n">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="AU26" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV26" t="n">
+        <v>22</v>
+      </c>
+      <c r="AW26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX26" t="n">
         <v>12</v>
       </c>
-      <c r="AV26" t="n">
-        <v>24</v>
-      </c>
-      <c r="AW26" t="n">
-        <v>2</v>
-      </c>
-      <c r="AX26" t="n">
-        <v>6</v>
-      </c>
       <c r="AY26" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="AZ26" t="n">
         <v>3</v>
@@ -5383,12 +5331,198 @@
         <v>2</v>
       </c>
       <c r="BB26" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD26" t="inlineStr">
+        <is>
+          <t>Goias</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>2023-05-07</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>11:00</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Série A</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>4</v>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Sun</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Home</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="I27" t="n">
+        <v>1</v>
+      </c>
+      <c r="J27" t="n">
+        <v>2</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>Cuiaba</t>
+        </is>
+      </c>
+      <c r="L27" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="N27" t="n">
+        <v>46</v>
+      </c>
+      <c r="O27" t="n">
+        <v>5228</v>
+      </c>
+      <c r="P27" t="n">
+        <v>15</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>4</v>
+      </c>
+      <c r="R27" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="S27" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="T27" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="U27" t="n">
+        <v>0</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="n">
+        <v>0</v>
+      </c>
+      <c r="X27" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>-0.4</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>-0.4</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>5</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>4</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>60</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>5910</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>2600</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK27" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AL27" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AM27" t="n">
+        <v>11</v>
+      </c>
+      <c r="AN27" t="n">
+        <v>41</v>
+      </c>
+      <c r="AO27" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP27" t="n">
+        <v>6</v>
+      </c>
+      <c r="AQ27" t="n">
+        <v>48</v>
+      </c>
+      <c r="AR27" t="n">
+        <v>4</v>
+      </c>
+      <c r="AS27" t="n">
+        <v>4</v>
+      </c>
+      <c r="AT27" t="n">
+        <v>17</v>
+      </c>
+      <c r="AU27" t="n">
+        <v>12</v>
+      </c>
+      <c r="AV27" t="n">
+        <v>24</v>
+      </c>
+      <c r="AW27" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX27" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY27" t="n">
+        <v>3</v>
+      </c>
+      <c r="AZ27" t="n">
+        <v>3</v>
+      </c>
+      <c r="BA27" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB27" t="n">
         <v>10</v>
       </c>
-      <c r="BC26" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD26" t="inlineStr">
+      <c r="BC27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD27" t="inlineStr">
         <is>
           <t>America (MG)</t>
         </is>

--- a/dados/historico/times/rodada_26/Cuiaba.xlsx
+++ b/dados/historico/times/rodada_26/Cuiaba.xlsx
@@ -712,7 +712,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>1</v>
+        <v>261</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -898,7 +898,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>2</v>
+        <v>262</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -1084,7 +1084,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>4</v>
+        <v>264</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -1270,7 +1270,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>7</v>
+        <v>267</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -1456,7 +1456,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>10</v>
+        <v>270</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -1642,7 +1642,7 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>12</v>
+        <v>272</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -1828,7 +1828,7 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>13</v>
+        <v>273</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -2012,7 +2012,7 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>15</v>
+        <v>275</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -2198,7 +2198,7 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>17</v>
+        <v>277</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -2384,7 +2384,7 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>19</v>
+        <v>279</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -2568,7 +2568,7 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>22</v>
+        <v>282</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -2752,7 +2752,7 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>24</v>
+        <v>284</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -2936,7 +2936,7 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>25</v>
+        <v>285</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -3120,7 +3120,7 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -3306,7 +3306,7 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>20</v>
+        <v>72</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -3490,7 +3490,7 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>1</v>
+        <v>78</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -3676,7 +3676,7 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>24</v>
+        <v>144</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -3862,7 +3862,7 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>8</v>
+        <v>161</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -4048,7 +4048,7 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>26</v>
+        <v>200</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -4234,7 +4234,7 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>35</v>
+        <v>231</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -4418,7 +4418,7 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>22</v>
+        <v>302</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -4602,7 +4602,7 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>6</v>
+        <v>318</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -4788,7 +4788,7 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>14</v>
+        <v>347</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -4974,7 +4974,7 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>11</v>
+        <v>427</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -5158,7 +5158,7 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>12</v>
+        <v>450</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -5344,7 +5344,7 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>6</v>
+        <v>497</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
